--- a/paper_six_puzzle_experiment_output/results.xlsx
+++ b/paper_six_puzzle_experiment_output/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZAyyubi\Desktop\EA_PROJECT\output\experiment_1\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZAyyubi\Desktop\LSGA\paper_six_puzzle_experiment_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -419,6 +419,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
